--- a/Analysis/_ALL-ISSUES.xlsx
+++ b/Analysis/_ALL-ISSUES.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A69DBA-E396-42EE-9346-6999044390AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DBF032-58C0-40F1-AC0C-A3F5BF9D903D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32010" yWindow="2850" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="12900" yWindow="2850" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="_ALL-ISSUES" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'_ALL-ISSUES'!$B$866</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="2487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="2489">
   <si>
     <t>Issue</t>
   </si>
@@ -7494,13 +7497,19 @@
   </si>
   <si>
     <t>TOTALS</t>
+  </si>
+  <si>
+    <t>Instances of N.A PR:</t>
+  </si>
+  <si>
+    <t>Not taken by new developers:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7510,6 +7519,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -7537,9 +7554,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7854,10 +7872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907D4F-821C-42A5-BB97-2A16C8296F6E}">
-  <dimension ref="A1:K863"/>
+  <dimension ref="A1:K867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
-      <selection activeCell="D858" sqref="D858"/>
+    <sheetView tabSelected="1" topLeftCell="A827" workbookViewId="0">
+      <selection activeCell="D873" sqref="D873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36334,31 +36352,31 @@
         <v>2486</v>
       </c>
       <c r="D861">
-        <f>SUM(D2:D859)</f>
+        <f t="shared" ref="D861:J861" si="0">SUM(D2:D859)</f>
         <v>279</v>
       </c>
       <c r="E861">
-        <f>SUM(E2:E859)</f>
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
       <c r="F861">
-        <f>SUM(F2:F859)</f>
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="G861">
-        <f>SUM(G2:G859)</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="H861">
-        <f>SUM(H2:H859)</f>
+        <f t="shared" si="0"/>
         <v>159</v>
       </c>
       <c r="I861">
-        <f>SUM(I2:I859)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="J861">
-        <f>SUM(J2:J859)</f>
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
     </row>
@@ -36383,6 +36401,24 @@
       </c>
       <c r="J863" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="866" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B866" s="2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C866">
+        <f>COUNTIF(C2:C859,"N.A")</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="867" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B867" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C867">
+        <f>858 - (D861 + C866)</f>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/_ALL-ISSUES.xlsx
+++ b/Analysis/_ALL-ISSUES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DBF032-58C0-40F1-AC0C-A3F5BF9D903D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D5F1DF-933A-45BA-8889-6373E4F446DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="2850" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="5625" yWindow="5685" windowWidth="38700" windowHeight="15375" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="_ALL-ISSUES" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="2489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="2496">
   <si>
     <t>Issue</t>
   </si>
@@ -7503,6 +7503,27 @@
   </si>
   <si>
     <t>Not taken by new developers:</t>
+  </si>
+  <si>
+    <t>Bug Fix Correspondence:</t>
+  </si>
+  <si>
+    <t>Enhancing Correspondence:</t>
+  </si>
+  <si>
+    <t>Feature Correspondence:</t>
+  </si>
+  <si>
+    <t>Documentation Correspondence:</t>
+  </si>
+  <si>
+    <t>Testing Correspondence:</t>
+  </si>
+  <si>
+    <t>Refactoring Correspondence:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -7872,10 +7893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907D4F-821C-42A5-BB97-2A16C8296F6E}">
-  <dimension ref="A1:K867"/>
+  <dimension ref="A1:K874"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A827" workbookViewId="0">
-      <selection activeCell="D873" sqref="D873"/>
+    <sheetView tabSelected="1" topLeftCell="A841" workbookViewId="0">
+      <selection activeCell="H870" sqref="H870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36403,7 +36424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="866" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B866" s="2" t="s">
         <v>2487</v>
       </c>
@@ -36412,13 +36433,181 @@
         <v>239</v>
       </c>
     </row>
-    <row r="867" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B867" s="2" t="s">
         <v>2488</v>
       </c>
       <c r="C867">
         <f>858 - (D861 + C866)</f>
         <v>340</v>
+      </c>
+    </row>
+    <row r="869" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D869" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E869" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F869">
+        <f>SUMPRODUCT(F2:F859,E2:E859)</f>
+        <v>10</v>
+      </c>
+      <c r="G869">
+        <f>SUMPRODUCT(G2:G859,E2:E859)</f>
+        <v>2</v>
+      </c>
+      <c r="H869">
+        <f>SUMPRODUCT(H2:H859,E2:E859)</f>
+        <v>4</v>
+      </c>
+      <c r="I869">
+        <f>SUMPRODUCT(I2:I859,E2:E859)</f>
+        <v>17</v>
+      </c>
+      <c r="J869">
+        <f>SUMPRODUCT(J2:J859,E2:E859)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="870" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D870" s="2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E870">
+        <f>SUMPRODUCT(E2:E859,F2:F859)</f>
+        <v>10</v>
+      </c>
+      <c r="F870" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G870">
+        <f>SUMPRODUCT(G2:G859,F2:F859)</f>
+        <v>4</v>
+      </c>
+      <c r="H870">
+        <f>SUMPRODUCT(H2:H859,F2:F859)</f>
+        <v>1</v>
+      </c>
+      <c r="I870">
+        <f>SUMPRODUCT(I2:I859,F2:F859)</f>
+        <v>7</v>
+      </c>
+      <c r="J870">
+        <f>SUMPRODUCT(J2:J859,F2:F859)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="871" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D871" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E871">
+        <f>SUMPRODUCT(E2:E859,G2:G859)</f>
+        <v>2</v>
+      </c>
+      <c r="F871">
+        <f>SUMPRODUCT(F2:F859,G2:G859)</f>
+        <v>4</v>
+      </c>
+      <c r="G871" t="s">
+        <v>2495</v>
+      </c>
+      <c r="H871">
+        <f>SUMPRODUCT(H2:H859,G2:G859)</f>
+        <v>2</v>
+      </c>
+      <c r="I871">
+        <f>SUMPRODUCT(I2:I859,G2:G859)</f>
+        <v>8</v>
+      </c>
+      <c r="J871">
+        <f>SUMPRODUCT(J2:J859,G2:G859)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="872" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D872" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E872">
+        <f>SUMPRODUCT(E2:E859,H2:H859)</f>
+        <v>4</v>
+      </c>
+      <c r="F872">
+        <f>SUMPRODUCT(F2:F859,H2:H859)</f>
+        <v>1</v>
+      </c>
+      <c r="G872">
+        <f>SUMPRODUCT(G2:G859,H2:H859)</f>
+        <v>2</v>
+      </c>
+      <c r="H872" t="s">
+        <v>2495</v>
+      </c>
+      <c r="I872">
+        <f>SUMPRODUCT(I2:I859,H2:H859)</f>
+        <v>3</v>
+      </c>
+      <c r="J872">
+        <f>SUMPRODUCT(J2:J859,H2:H859)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D873" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E873">
+        <f>SUMPRODUCT(E2:E859,I2:I859)</f>
+        <v>17</v>
+      </c>
+      <c r="F873">
+        <f>SUMPRODUCT(F2:F859,I2:I859)</f>
+        <v>7</v>
+      </c>
+      <c r="G873">
+        <f>SUMPRODUCT(G2:G859,I2:I859)</f>
+        <v>8</v>
+      </c>
+      <c r="H873">
+        <f>SUMPRODUCT(H2:H859,I2:I859)</f>
+        <v>3</v>
+      </c>
+      <c r="I873" t="s">
+        <v>2495</v>
+      </c>
+      <c r="J873">
+        <f>SUMPRODUCT(J2:J859,I2:I859)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="874" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D874" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E874">
+        <f>SUMPRODUCT(E2:E859,J2:J859)</f>
+        <v>23</v>
+      </c>
+      <c r="F874">
+        <f>SUMPRODUCT(F2:F859,J2:J859)</f>
+        <v>27</v>
+      </c>
+      <c r="G874">
+        <f>SUMPRODUCT(G2:G859,J2:J859)</f>
+        <v>6</v>
+      </c>
+      <c r="H874">
+        <f>SUMPRODUCT(H2:H859,J2:J859)</f>
+        <v>3</v>
+      </c>
+      <c r="I874">
+        <f>SUMPRODUCT(I2:I859,J2:J859)</f>
+        <v>8</v>
+      </c>
+      <c r="J874" t="s">
+        <v>2495</v>
       </c>
     </row>
   </sheetData>
